--- a/src/main/resources/static/template/studentImportTemplate.xlsx
+++ b/src/main/resources/static/template/studentImportTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0315A24B-49D5-45C7-977B-8E8CBF3FDF55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CA912-6475-49B1-AB9F-EDB82480AE0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>信息学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计科一班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>familyAccount(户口)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,22 @@
   </si>
   <si>
     <t>河南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科1班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,9 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -402,7 +418,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -430,45 +446,45 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>450000</v>
-      </c>
-      <c r="I2">
-        <v>800000</v>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/template/studentImportTemplate.xlsx
+++ b/src/main/resources/static/template/studentImportTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CA912-6475-49B1-AB9F-EDB82480AE0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2F923D-DF49-4DA3-B60A-16C62C9985E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>信息学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>计科一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>familyAccount(户口)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +74,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>450000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,11 +86,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计科1班</t>
+    <t>teacherName(教师姓名)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张仲景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,10 +139,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -415,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -426,13 +434,13 @@
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="4" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -446,45 +454,51 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
